--- a/Listado_PLANLABORAL.xlsx
+++ b/Listado_PLANLABORAL.xlsx
@@ -11,12 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>FECHA</t>
-  </si>
-  <si>
-    <t>NRO OT</t>
   </si>
   <si>
     <t>EMPLEADO</t>
@@ -25,13 +22,37 @@
     <t>CLIENTE PLAN MAÑANA</t>
   </si>
   <si>
+    <t>OBRA PLAN MAÑANA</t>
+  </si>
+  <si>
+    <t>OT PLAN MAÑANA</t>
+  </si>
+  <si>
     <t>CLIENTE REAL MAÑANA</t>
   </si>
   <si>
     <t>CLIENTE PLAN TARDE</t>
   </si>
   <si>
+    <t>OBRA PLAN TARDE</t>
+  </si>
+  <si>
+    <t>OT PLAN TARDE</t>
+  </si>
+  <si>
+    <t>OBRA REAL MAÑANA</t>
+  </si>
+  <si>
+    <t>OT REAL MAÑANA</t>
+  </si>
+  <si>
     <t>CLIENTE REAL TARDE</t>
+  </si>
+  <si>
+    <t>OBRA REAL TARDE</t>
+  </si>
+  <si>
+    <t>OT REAL TARDE</t>
   </si>
   <si>
     <t>ENCARGADO</t>
@@ -44,12 +65,6 @@
   </si>
   <si>
     <t>HS SALIDA</t>
-  </si>
-  <si>
-    <t>IMPUTACION 1</t>
-  </si>
-  <si>
-    <t>IMPUTACION 2</t>
   </si>
 </sst>
 </file>
@@ -95,13 +110,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -112,28 +127,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Listado_PLANLABORAL.xlsx
+++ b/Listado_PLANLABORAL.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>FECHA</t>
   </si>
@@ -65,6 +65,111 @@
   </si>
   <si>
     <t>HS SALIDA</t>
+  </si>
+  <si>
+    <t>06/01/2019</t>
+  </si>
+  <si>
+    <t>Luis Oviedo</t>
+  </si>
+  <si>
+    <t>paleto</t>
+  </si>
+  <si>
+    <t>OBRA TEST</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Luis Enrique</t>
+  </si>
+  <si>
+    <t>Casa Particular</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>obra de trabajo</t>
+  </si>
+  <si>
+    <t>1233</t>
+  </si>
+  <si>
+    <t>Cristina</t>
+  </si>
+  <si>
+    <t>Plasma</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>10/01/2019</t>
+  </si>
+  <si>
+    <t>Analia Riveros</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>OBRA TEST 2</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>PRUEBA DE OBRA</t>
+  </si>
+  <si>
+    <t>86869</t>
+  </si>
+  <si>
+    <t>15/01/2019</t>
+  </si>
+  <si>
+    <t>asdvbb</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>09/01/2019</t>
+  </si>
+  <si>
+    <t>prueba de 2</t>
+  </si>
+  <si>
+    <t>analia riveros 1</t>
+  </si>
+  <si>
+    <t>arreglo juguetes</t>
+  </si>
+  <si>
+    <t>EMPRESA X123</t>
+  </si>
+  <si>
+    <t>cambio de techosdf sdfsdf</t>
+  </si>
+  <si>
+    <t>EMPRESA L23424</t>
+  </si>
+  <si>
+    <t>mejoras sd</t>
+  </si>
+  <si>
+    <t>EMPRESA X</t>
+  </si>
+  <si>
+    <t>cambio de techo</t>
+  </si>
+  <si>
+    <t>EMPRESA L</t>
+  </si>
+  <si>
+    <t>mejoras</t>
   </si>
 </sst>
 </file>
@@ -110,7 +215,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -172,6 +277,398 @@
         <v>17</v>
       </c>
     </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Listado_PLANLABORAL.xlsx
+++ b/Listado_PLANLABORAL.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>FECHA</t>
   </si>
@@ -103,37 +103,40 @@
     <t>Plasma</t>
   </si>
   <si>
+    <t>undefined</t>
+  </si>
+  <si>
+    <t>10/01/2019</t>
+  </si>
+  <si>
+    <t>Analia Riveros</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>OBRA TEST 2</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>PRUEBA DE OBRA</t>
+  </si>
+  <si>
+    <t>86869</t>
+  </si>
+  <si>
+    <t>15/01/2019</t>
+  </si>
+  <si>
+    <t>asdvbb</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>null</t>
-  </si>
-  <si>
-    <t>10/01/2019</t>
-  </si>
-  <si>
-    <t>Analia Riveros</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>OBRA TEST 2</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>PRUEBA DE OBRA</t>
-  </si>
-  <si>
-    <t>86869</t>
-  </si>
-  <si>
-    <t>15/01/2019</t>
-  </si>
-  <si>
-    <t>asdvbb</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
   <si>
     <t>09/01/2019</t>
@@ -415,22 +418,22 @@
         <v>40</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>28</v>
@@ -447,13 +450,13 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>36</v>
@@ -462,37 +465,37 @@
         <v>33</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>30</v>
@@ -503,13 +506,13 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>36</v>
@@ -518,37 +521,37 @@
         <v>33</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>30</v>
@@ -565,46 +568,46 @@
         <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>30</v>
@@ -621,46 +624,46 @@
         <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>30</v>

--- a/Listado_PLANLABORAL.xlsx
+++ b/Listado_PLANLABORAL.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>FECHA</t>
   </si>
@@ -103,7 +103,7 @@
     <t>Plasma</t>
   </si>
   <si>
-    <t>undefined</t>
+    <t>null</t>
   </si>
   <si>
     <t>10/01/2019</t>
@@ -134,9 +134,6 @@
   </si>
   <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>null</t>
   </si>
   <si>
     <t>09/01/2019</t>
@@ -418,22 +415,22 @@
         <v>40</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>28</v>
@@ -450,13 +447,13 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>36</v>
@@ -465,37 +462,37 @@
         <v>33</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>30</v>
@@ -506,13 +503,13 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>36</v>
@@ -521,37 +518,37 @@
         <v>33</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>30</v>
@@ -568,46 +565,46 @@
         <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="H7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>30</v>
@@ -624,46 +621,46 @@
         <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="H8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>30</v>

--- a/Listado_PLANLABORAL.xlsx
+++ b/Listado_PLANLABORAL.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>FECHA</t>
   </si>
@@ -67,30 +67,90 @@
     <t>HS SALIDA</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Luis Enrique Oviedo</t>
+  </si>
+  <si>
+    <t>clientito 1</t>
+  </si>
+  <si>
+    <t>camineros</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>camineros 1</t>
+  </si>
+  <si>
+    <t>Luis Enrique</t>
+  </si>
+  <si>
+    <t>asdvbb</t>
+  </si>
+  <si>
+    <t>Oscar Gustavo</t>
+  </si>
+  <si>
+    <t>7:30</t>
+  </si>
+  <si>
+    <t>16:30</t>
+  </si>
+  <si>
+    <t>analia riveros 1</t>
+  </si>
+  <si>
+    <t>arreglo juguetes</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>12344565</t>
+  </si>
+  <si>
+    <t>OBRA TEST</t>
+  </si>
+  <si>
+    <t>analia riveros</t>
+  </si>
+  <si>
+    <t>hierro porton</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>tets</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>Casa Particular</t>
+  </si>
+  <si>
+    <t>paleto</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>TETS</t>
+  </si>
+  <si>
     <t>06/01/2019</t>
   </si>
   <si>
     <t>Luis Oviedo</t>
   </si>
   <si>
-    <t>paleto</t>
-  </si>
-  <si>
-    <t>OBRA TEST</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Luis Enrique</t>
-  </si>
-  <si>
-    <t>Casa Particular</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>obra de trabajo</t>
   </si>
   <si>
@@ -112,9 +172,6 @@
     <t>Analia Riveros</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>OBRA TEST 2</t>
   </si>
   <si>
@@ -130,9 +187,6 @@
     <t>15/01/2019</t>
   </si>
   <si>
-    <t>asdvbb</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -140,12 +194,6 @@
   </si>
   <si>
     <t>prueba de 2</t>
-  </si>
-  <si>
-    <t>analia riveros 1</t>
-  </si>
-  <si>
-    <t>arreglo juguetes</t>
   </si>
   <si>
     <t>EMPRESA X123</t>
@@ -215,7 +263,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -294,19 +342,19 @@
         <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="H2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>22</v>
@@ -315,358 +363,526 @@
         <v>20</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="P3" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="K5" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="G6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="N7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="P7" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>30</v>
+      <c r="H9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Listado_PLANLABORAL.xlsx
+++ b/Listado_PLANLABORAL.xlsx
@@ -159,15 +159,9 @@
     <numFmt formatCode="#,##0.00; (#,##0.00); -" numFmtId="164"/>
     <numFmt formatCode="#,##0; (#,##0); -" numFmtId="165"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="1"/>
@@ -181,9 +175,7 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEF820D"/>
-      </patternFill>
+      <patternFill patternType="solid"/>
     </fill>
   </fills>
   <borders count="1">
@@ -198,7 +190,7 @@
   <cellXfs count="4">
     <xf applyFont="1" fontId="0"/>
     <xf applyFont="1" fontId="0" applyNumberFormat="1" numFmtId="164"/>
-    <xf applyFont="1" fontId="1" applyNumberFormat="1" numFmtId="165"/>
+    <xf applyFont="1" fontId="0" applyNumberFormat="1" numFmtId="165"/>
     <xf applyFont="1" fontId="0" applyFill="1" fillId="2"/>
   </cellXfs>
 </styleSheet>

--- a/Listado_PLANLABORAL.xlsx
+++ b/Listado_PLANLABORAL.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>FECHA</t>
   </si>
@@ -37,6 +37,51 @@
     <t>OBRA PLAN TARDE</t>
   </si>
   <si>
+    <t>07/02/2019</t>
+  </si>
+  <si>
+    <t>Luis Enrique Oviedo</t>
+  </si>
+  <si>
+    <t>clientito 1</t>
+  </si>
+  <si>
+    <t>camineros</t>
+  </si>
+  <si>
+    <t>Oscar Gustavo</t>
+  </si>
+  <si>
+    <t>sadasfasf</t>
+  </si>
+  <si>
+    <t>Luis Enrique</t>
+  </si>
+  <si>
+    <t>asdvbb</t>
+  </si>
+  <si>
+    <t>TETS</t>
+  </si>
+  <si>
+    <t>06/02/2019</t>
+  </si>
+  <si>
+    <t>paleto</t>
+  </si>
+  <si>
+    <t>OBRA TEST</t>
+  </si>
+  <si>
+    <t>Oscar Gdfsfsdf</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>calo</t>
+  </si>
+  <si>
     <t>15/01/2019</t>
   </si>
   <si>
@@ -73,27 +118,15 @@
     <t>mejoras sd</t>
   </si>
   <si>
-    <t>Luis Enrique</t>
-  </si>
-  <si>
     <t>Casa Particular</t>
   </si>
   <si>
     <t>Cristina</t>
   </si>
   <si>
-    <t>asdvbb</t>
-  </si>
-  <si>
     <t>10/01/2019</t>
   </si>
   <si>
-    <t>OBRA TEST</t>
-  </si>
-  <si>
-    <t>paleto</t>
-  </si>
-  <si>
     <t>OBRA TEST 2</t>
   </si>
   <si>
@@ -121,28 +154,7 @@
     <t>-</t>
   </si>
   <si>
-    <t>Luis Enrique Oviedo</t>
-  </si>
-  <si>
-    <t>clientito 1</t>
-  </si>
-  <si>
-    <t>camineros</t>
-  </si>
-  <si>
-    <t>Oscar Gustavo</t>
-  </si>
-  <si>
-    <t>TETS</t>
-  </si>
-  <si>
-    <t>calo</t>
-  </si>
-  <si>
     <t>tets</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>camineros 1</t>
@@ -198,7 +210,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -253,39 +265,39 @@
         <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>18</v>
@@ -294,266 +306,330 @@
         <v>19</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="I11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>45</v>
+      <c r="E12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Listado_PLANLABORAL.xlsx
+++ b/Listado_PLANLABORAL.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>FECHA</t>
   </si>
@@ -61,79 +61,76 @@
     <t>TETS</t>
   </si>
   <si>
+    <t>Analia Riveros</t>
+  </si>
+  <si>
+    <t>EMPRESA X</t>
+  </si>
+  <si>
+    <t>cambio de techo</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>EMPRESA L</t>
+  </si>
+  <si>
+    <t>mejoras</t>
+  </si>
+  <si>
+    <t>Luis Oviedo</t>
+  </si>
+  <si>
+    <t>EMPRESA X123</t>
+  </si>
+  <si>
+    <t>cambio de techosdf sdfsdf</t>
+  </si>
+  <si>
+    <t>EMPRESA L23424</t>
+  </si>
+  <si>
+    <t>mejoras sd</t>
+  </si>
+  <si>
+    <t>Casa Particular</t>
+  </si>
+  <si>
+    <t>Cristina</t>
+  </si>
+  <si>
+    <t>OBRA TEST</t>
+  </si>
+  <si>
     <t>paleto</t>
   </si>
   <si>
-    <t>OBRA TEST</t>
-  </si>
-  <si>
-    <t>Oscar Gdfsfsdf</t>
+    <t>OBRA TEST 2</t>
+  </si>
+  <si>
+    <t>prueba de 2</t>
+  </si>
+  <si>
+    <t>PRUEBA DE OBRA</t>
+  </si>
+  <si>
+    <t>analia riveros 1</t>
+  </si>
+  <si>
+    <t>arreglo juguetes</t>
+  </si>
+  <si>
+    <t>Plasma</t>
+  </si>
+  <si>
+    <t>calo</t>
+  </si>
+  <si>
+    <t>tets</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>calo</t>
-  </si>
-  <si>
-    <t>Analia Riveros</t>
-  </si>
-  <si>
-    <t>EMPRESA X</t>
-  </si>
-  <si>
-    <t>cambio de techo</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>EMPRESA L</t>
-  </si>
-  <si>
-    <t>mejoras</t>
-  </si>
-  <si>
-    <t>Luis Oviedo</t>
-  </si>
-  <si>
-    <t>EMPRESA X123</t>
-  </si>
-  <si>
-    <t>cambio de techosdf sdfsdf</t>
-  </si>
-  <si>
-    <t>EMPRESA L23424</t>
-  </si>
-  <si>
-    <t>mejoras sd</t>
-  </si>
-  <si>
-    <t>Casa Particular</t>
-  </si>
-  <si>
-    <t>Cristina</t>
-  </si>
-  <si>
-    <t>OBRA TEST 2</t>
-  </si>
-  <si>
-    <t>prueba de 2</t>
-  </si>
-  <si>
-    <t>PRUEBA DE OBRA</t>
-  </si>
-  <si>
-    <t>analia riveros 1</t>
-  </si>
-  <si>
-    <t>arreglo juguetes</t>
-  </si>
-  <si>
-    <t>Plasma</t>
-  </si>
-  <si>
-    <t>tets</t>
   </si>
   <si>
     <t>camineros 1</t>
@@ -191,7 +188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -231,7 +228,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="4">
-        <v>43503</v>
+        <v>43508</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -263,31 +260,31 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4">
-        <v>43502</v>
+        <v>43507</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>15</v>
@@ -295,86 +292,86 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4">
-        <v>43480</v>
+        <v>43506</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="4">
-        <v>43480</v>
+        <v>43505</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="4">
-        <v>43480</v>
+        <v>43504</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>13</v>
@@ -383,234 +380,362 @@
         <v>14</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4">
-        <v>43475</v>
+        <v>43503</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4">
-        <v>43474</v>
+        <v>43480</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4">
-        <v>43474</v>
+        <v>43480</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="4">
-        <v>43471</v>
+        <v>43480</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4">
-        <v>25569</v>
+        <v>43475</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="4">
-        <v>25569</v>
+        <v>43474</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4">
+        <v>43474</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="4">
+        <v>43471</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="4">
         <v>25569</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Listado_PLANLABORAL.xlsx
+++ b/Listado_PLANLABORAL.xlsx
@@ -228,7 +228,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="4">
-        <v>43508</v>
+        <v>43509</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -260,7 +260,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4">
-        <v>43507</v>
+        <v>43508</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -292,7 +292,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4">
-        <v>43506</v>
+        <v>43507</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>

--- a/Listado_PLANLABORAL.xlsx
+++ b/Listado_PLANLABORAL.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>FECHA</t>
   </si>
@@ -40,6 +40,63 @@
     <t>Luis Enrique Oviedo</t>
   </si>
   <si>
+    <t>paleto</t>
+  </si>
+  <si>
+    <t>OBRA TEST</t>
+  </si>
+  <si>
+    <t>Cristina</t>
+  </si>
+  <si>
+    <t>Luis Enrique</t>
+  </si>
+  <si>
+    <t>prueba de 2</t>
+  </si>
+  <si>
+    <t>PRUEBA DE OBRA</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>analia riveros 1</t>
+  </si>
+  <si>
+    <t>arreglo juguetes</t>
+  </si>
+  <si>
+    <t>dnfdjd fgh g</t>
+  </si>
+  <si>
+    <t>analia riveros</t>
+  </si>
+  <si>
+    <t>hierro porton</t>
+  </si>
+  <si>
+    <t>fgb df</t>
+  </si>
+  <si>
+    <t>bcvbc v b</t>
+  </si>
+  <si>
+    <t>hierro porton  dfb</t>
+  </si>
+  <si>
+    <t>Casa Particular</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>fgd</t>
+  </si>
+  <si>
+    <t>Columnas Metalicas 2_</t>
+  </si>
+  <si>
     <t>clientito 1</t>
   </si>
   <si>
@@ -52,9 +109,6 @@
     <t>sadasfasf</t>
   </si>
   <si>
-    <t>Luis Enrique</t>
-  </si>
-  <si>
     <t>asdvbb</t>
   </si>
   <si>
@@ -94,33 +148,9 @@
     <t>mejoras sd</t>
   </si>
   <si>
-    <t>Casa Particular</t>
-  </si>
-  <si>
-    <t>Cristina</t>
-  </si>
-  <si>
-    <t>OBRA TEST</t>
-  </si>
-  <si>
-    <t>paleto</t>
-  </si>
-  <si>
     <t>OBRA TEST 2</t>
   </si>
   <si>
-    <t>prueba de 2</t>
-  </si>
-  <si>
-    <t>PRUEBA DE OBRA</t>
-  </si>
-  <si>
-    <t>analia riveros 1</t>
-  </si>
-  <si>
-    <t>arreglo juguetes</t>
-  </si>
-  <si>
     <t>Plasma</t>
   </si>
   <si>
@@ -128,9 +158,6 @@
   </si>
   <si>
     <t>tets</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>camineros 1</t>
@@ -188,7 +215,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -228,7 +255,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="4">
-        <v>43509</v>
+        <v>43536</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -252,7 +279,7 @@
         <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>15</v>
@@ -260,95 +287,95 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4">
-        <v>43508</v>
+        <v>43535</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4">
-        <v>43507</v>
+        <v>43535</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="4">
-        <v>43505</v>
+        <v>43534</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
@@ -356,301 +383,301 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="4">
-        <v>43504</v>
+        <v>43509</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4">
-        <v>43503</v>
+        <v>43508</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4">
-        <v>43480</v>
+        <v>43507</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4">
-        <v>43480</v>
+        <v>43505</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="4">
-        <v>43480</v>
+        <v>43504</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4">
-        <v>43475</v>
+        <v>43503</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="4">
-        <v>43474</v>
+        <v>43480</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4">
-        <v>43474</v>
+        <v>43480</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="4">
-        <v>43471</v>
+        <v>43480</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="4">
-        <v>25569</v>
+        <v>43475</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>10</v>
@@ -659,83 +686,211 @@
         <v>11</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="4">
-        <v>25569</v>
+        <v>43474</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="4">
+        <v>43474</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="4">
+        <v>43471</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="4">
         <v>25569</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>41</v>
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Listado_PLANLABORAL.xlsx
+++ b/Listado_PLANLABORAL.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>FECHA</t>
   </si>
@@ -40,18 +40,54 @@
     <t>Luis Enrique Oviedo</t>
   </si>
   <si>
+    <t>clientito 1</t>
+  </si>
+  <si>
+    <t>camineros</t>
+  </si>
+  <si>
+    <t>Oscar Gustavo</t>
+  </si>
+  <si>
+    <t>dvvs sd s</t>
+  </si>
+  <si>
     <t>paleto</t>
   </si>
   <si>
+    <t>obra de trabajo</t>
+  </si>
+  <si>
+    <t>sdf</t>
+  </si>
+  <si>
+    <t>df s df</t>
+  </si>
+  <si>
+    <t>Luis Enrique</t>
+  </si>
+  <si>
+    <t>asdvbb</t>
+  </si>
+  <si>
+    <t>Cristina</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>analia riveros 1</t>
+  </si>
+  <si>
+    <t>arreglo juguetes</t>
+  </si>
+  <si>
+    <t>test domingo</t>
+  </si>
+  <si>
     <t>OBRA TEST</t>
   </si>
   <si>
-    <t>Cristina</t>
-  </si>
-  <si>
-    <t>Luis Enrique</t>
-  </si>
-  <si>
     <t>prueba de 2</t>
   </si>
   <si>
@@ -61,12 +97,6 @@
     <t/>
   </si>
   <si>
-    <t>analia riveros 1</t>
-  </si>
-  <si>
-    <t>arreglo juguetes</t>
-  </si>
-  <si>
     <t>dnfdjd fgh g</t>
   </si>
   <si>
@@ -97,19 +127,7 @@
     <t>Columnas Metalicas 2_</t>
   </si>
   <si>
-    <t>clientito 1</t>
-  </si>
-  <si>
-    <t>camineros</t>
-  </si>
-  <si>
-    <t>Oscar Gustavo</t>
-  </si>
-  <si>
     <t>sadasfasf</t>
-  </si>
-  <si>
-    <t>asdvbb</t>
   </si>
   <si>
     <t>TETS</t>
@@ -215,7 +233,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -255,7 +273,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="4">
-        <v>43536</v>
+        <v>43542</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -282,359 +300,359 @@
         <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4">
-        <v>43535</v>
+        <v>43541</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4">
-        <v>43535</v>
+        <v>43536</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="4">
-        <v>43534</v>
+        <v>43535</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="4">
-        <v>43509</v>
+        <v>43535</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="H6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4">
-        <v>43508</v>
+        <v>43534</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4">
-        <v>43507</v>
+        <v>43509</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4">
-        <v>43505</v>
+        <v>43508</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="4">
-        <v>43504</v>
+        <v>43507</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4">
-        <v>43503</v>
+        <v>43505</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="4">
-        <v>43480</v>
+        <v>43504</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4">
-        <v>43480</v>
+        <v>43503</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -645,220 +663,220 @@
         <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="4">
-        <v>43475</v>
+        <v>43480</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="4">
-        <v>43474</v>
+        <v>43480</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="4">
-        <v>43474</v>
+        <v>43475</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="H17" s="1" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="4">
-        <v>43471</v>
+        <v>43474</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="4">
-        <v>25569</v>
+        <v>43474</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="4">
-        <v>25569</v>
+        <v>43471</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -869,28 +887,92 @@
         <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Listado_PLANLABORAL.xlsx
+++ b/Listado_PLANLABORAL.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>FECHA</t>
   </si>
@@ -40,6 +40,48 @@
     <t>Luis Enrique Oviedo</t>
   </si>
   <si>
+    <t>Luis Enrique</t>
+  </si>
+  <si>
+    <t>Casa Particular</t>
+  </si>
+  <si>
+    <t>dvsdv</t>
+  </si>
+  <si>
+    <t>prueba de 2</t>
+  </si>
+  <si>
+    <t>PRUEBA DE OBRA</t>
+  </si>
+  <si>
+    <t>sdvsvs sd s</t>
+  </si>
+  <si>
+    <t>dsfsfs</t>
+  </si>
+  <si>
+    <t>asdvbb</t>
+  </si>
+  <si>
+    <t>sasd</t>
+  </si>
+  <si>
+    <t>asc a</t>
+  </si>
+  <si>
+    <t>paleto</t>
+  </si>
+  <si>
+    <t>OBRA TEST</t>
+  </si>
+  <si>
+    <t>asfa</t>
+  </si>
+  <si>
+    <t>adfsfd</t>
+  </si>
+  <si>
     <t>clientito 1</t>
   </si>
   <si>
@@ -52,9 +94,6 @@
     <t>dvvs sd s</t>
   </si>
   <si>
-    <t>paleto</t>
-  </si>
-  <si>
     <t>obra de trabajo</t>
   </si>
   <si>
@@ -64,12 +103,6 @@
     <t>df s df</t>
   </si>
   <si>
-    <t>Luis Enrique</t>
-  </si>
-  <si>
-    <t>asdvbb</t>
-  </si>
-  <si>
     <t>Cristina</t>
   </si>
   <si>
@@ -85,15 +118,6 @@
     <t>test domingo</t>
   </si>
   <si>
-    <t>OBRA TEST</t>
-  </si>
-  <si>
-    <t>prueba de 2</t>
-  </si>
-  <si>
-    <t>PRUEBA DE OBRA</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -113,9 +137,6 @@
   </si>
   <si>
     <t>hierro porton  dfb</t>
-  </si>
-  <si>
-    <t>Casa Particular</t>
   </si>
   <si>
     <t>df</t>
@@ -233,7 +254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -273,7 +294,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="4">
-        <v>43542</v>
+        <v>43544</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -288,216 +309,216 @@
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4">
-        <v>43541</v>
+        <v>43543</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4">
-        <v>43536</v>
+        <v>43542</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="4">
-        <v>43535</v>
+        <v>43541</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="4">
-        <v>43535</v>
+        <v>43536</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4">
-        <v>43534</v>
+        <v>43535</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4">
-        <v>43509</v>
+        <v>43535</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4">
-        <v>43508</v>
+        <v>43534</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
@@ -509,214 +530,214 @@
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="4">
-        <v>43507</v>
+        <v>43509</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4">
-        <v>43505</v>
+        <v>43508</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="4">
-        <v>43504</v>
+        <v>43507</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4">
-        <v>43503</v>
+        <v>43505</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="4">
-        <v>43480</v>
+        <v>43504</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="4">
-        <v>43480</v>
+        <v>43503</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -724,211 +745,211 @@
         <v>43480</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="4">
-        <v>43475</v>
+        <v>43480</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="4">
-        <v>43474</v>
+        <v>43480</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="4">
-        <v>43474</v>
+        <v>43475</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="4">
-        <v>43471</v>
+        <v>43474</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="4">
-        <v>25569</v>
+        <v>43474</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="4">
-        <v>25569</v>
+        <v>43471</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>9</v>
@@ -937,10 +958,10 @@
         <v>10</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -951,28 +972,92 @@
         <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="I23" s="1" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Listado_PLANLABORAL.xlsx
+++ b/Listado_PLANLABORAL.xlsx
@@ -43,6 +43,15 @@
     <t>Luis Enrique</t>
   </si>
   <si>
+    <t>OBRA TEST</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Columnas Metalicas 2_</t>
+  </si>
+  <si>
     <t>Casa Particular</t>
   </si>
   <si>
@@ -73,9 +82,6 @@
     <t>paleto</t>
   </si>
   <si>
-    <t>OBRA TEST</t>
-  </si>
-  <si>
     <t>asfa</t>
   </si>
   <si>
@@ -118,9 +124,6 @@
     <t>test domingo</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>dnfdjd fgh g</t>
   </si>
   <si>
@@ -143,9 +146,6 @@
   </si>
   <si>
     <t>fgd</t>
-  </si>
-  <si>
-    <t>Columnas Metalicas 2_</t>
   </si>
   <si>
     <t>sadasfasf</t>
@@ -254,7 +254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -294,7 +294,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="4">
-        <v>43544</v>
+        <v>43557</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -309,24 +309,24 @@
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4">
-        <v>43543</v>
+        <v>43544</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -335,153 +335,153 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4">
-        <v>43542</v>
+        <v>43543</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="4">
-        <v>43541</v>
+        <v>43542</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="4">
-        <v>43536</v>
+        <v>43541</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4">
-        <v>43535</v>
+        <v>43536</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -492,109 +492,109 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4">
-        <v>43534</v>
+        <v>43535</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="4">
-        <v>43509</v>
+        <v>43534</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4">
-        <v>43508</v>
+        <v>43509</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>45</v>
@@ -603,10 +603,10 @@
         <v>9</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>46</v>
@@ -614,19 +614,19 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="4">
-        <v>43507</v>
+        <v>43508</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>45</v>
@@ -635,10 +635,10 @@
         <v>9</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>46</v>
@@ -646,19 +646,19 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4">
-        <v>43505</v>
+        <v>43507</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>45</v>
@@ -667,10 +667,10 @@
         <v>9</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>46</v>
@@ -678,19 +678,19 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="4">
-        <v>43504</v>
+        <v>43505</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>45</v>
@@ -699,10 +699,10 @@
         <v>9</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>46</v>
@@ -710,19 +710,19 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="4">
-        <v>43503</v>
+        <v>43504</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>45</v>
@@ -731,10 +731,10 @@
         <v>9</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>46</v>
@@ -742,34 +742,34 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="4">
-        <v>43480</v>
+        <v>43503</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -777,13 +777,13 @@
         <v>43480</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>50</v>
@@ -792,10 +792,10 @@
         <v>50</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>50</v>
@@ -812,22 +812,22 @@
         <v>53</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>50</v>
@@ -838,28 +838,28 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="4">
-        <v>43475</v>
+        <v>43480</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>50</v>
@@ -870,28 +870,28 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="4">
-        <v>43474</v>
+        <v>43475</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>50</v>
@@ -908,10 +908,10 @@
         <v>47</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>50</v>
@@ -920,10 +920,10 @@
         <v>50</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>50</v>
@@ -934,28 +934,28 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="4">
-        <v>43471</v>
+        <v>43474</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>50</v>
@@ -966,34 +966,34 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="4">
-        <v>25569</v>
+        <v>43471</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1004,28 +1004,28 @@
         <v>8</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1036,27 +1036,59 @@
         <v>8</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="H25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J25" s="1" t="s">
+      <c r="I26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>63</v>
       </c>
     </row>

--- a/Listado_PLANLABORAL.xlsx
+++ b/Listado_PLANLABORAL.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>FECHA</t>
   </si>
@@ -49,9 +49,30 @@
     <t/>
   </si>
   <si>
+    <t>Analia Riveros</t>
+  </si>
+  <si>
+    <t>PRUEBA DE OBRA</t>
+  </si>
+  <si>
     <t>Columnas Metalicas 2_</t>
   </si>
   <si>
+    <t>clientito 1</t>
+  </si>
+  <si>
+    <t>igelsia</t>
+  </si>
+  <si>
+    <t>parroco</t>
+  </si>
+  <si>
+    <t>alguito testito</t>
+  </si>
+  <si>
+    <t>obra de trabajo</t>
+  </si>
+  <si>
     <t>Casa Particular</t>
   </si>
   <si>
@@ -61,9 +82,6 @@
     <t>prueba de 2</t>
   </si>
   <si>
-    <t>PRUEBA DE OBRA</t>
-  </si>
-  <si>
     <t>sdvsvs sd s</t>
   </si>
   <si>
@@ -88,9 +106,6 @@
     <t>adfsfd</t>
   </si>
   <si>
-    <t>clientito 1</t>
-  </si>
-  <si>
     <t>camineros</t>
   </si>
   <si>
@@ -100,9 +115,6 @@
     <t>dvvs sd s</t>
   </si>
   <si>
-    <t>obra de trabajo</t>
-  </si>
-  <si>
     <t>sdf</t>
   </si>
   <si>
@@ -152,9 +164,6 @@
   </si>
   <si>
     <t>TETS</t>
-  </si>
-  <si>
-    <t>Analia Riveros</t>
   </si>
   <si>
     <t>EMPRESA X</t>
@@ -254,7 +263,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -294,7 +303,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="4">
-        <v>43557</v>
+        <v>43564</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -312,10 +321,10 @@
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>11</v>
@@ -326,7 +335,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4">
-        <v>43544</v>
+        <v>43557</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -335,94 +344,94 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4">
-        <v>43543</v>
+        <v>43557</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="4">
-        <v>43542</v>
+        <v>43544</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="4">
-        <v>43541</v>
+        <v>43543</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
@@ -431,74 +440,74 @@
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4">
-        <v>43536</v>
+        <v>43542</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4">
-        <v>43535</v>
+        <v>43541</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>37</v>
@@ -510,295 +519,295 @@
         <v>39</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4">
-        <v>43535</v>
+        <v>43536</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="4">
-        <v>43534</v>
+        <v>43535</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="J10" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4">
-        <v>43509</v>
+        <v>43535</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="4">
-        <v>43508</v>
+        <v>43534</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4">
-        <v>43507</v>
+        <v>43509</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="4">
-        <v>43505</v>
+        <v>43508</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="4">
-        <v>43504</v>
+        <v>43507</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="I15" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="4">
-        <v>43503</v>
+        <v>43505</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="I16" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="4">
-        <v>43480</v>
+        <v>43504</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>50</v>
@@ -806,31 +815,31 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="4">
-        <v>43480</v>
+        <v>43503</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>50</v>
@@ -841,223 +850,223 @@
         <v>43480</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="4">
-        <v>43475</v>
+        <v>43480</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="4">
-        <v>43474</v>
+        <v>43480</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="4">
-        <v>43474</v>
+        <v>43475</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="4">
-        <v>43471</v>
+        <v>43474</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="4">
-        <v>25569</v>
+        <v>43474</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="4">
-        <v>25569</v>
+        <v>43471</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1068,28 +1077,92 @@
         <v>8</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Listado_PLANLABORAL.xlsx
+++ b/Listado_PLANLABORAL.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>FECHA</t>
   </si>
@@ -55,12 +55,21 @@
     <t>PRUEBA DE OBRA</t>
   </si>
   <si>
+    <t>clientito 1</t>
+  </si>
+  <si>
+    <t>camineros</t>
+  </si>
+  <si>
+    <t>Oscar Gustavo</t>
+  </si>
+  <si>
+    <t>TESTXX</t>
+  </si>
+  <si>
     <t>Columnas Metalicas 2_</t>
   </si>
   <si>
-    <t>clientito 1</t>
-  </si>
-  <si>
     <t>igelsia</t>
   </si>
   <si>
@@ -104,12 +113,6 @@
   </si>
   <si>
     <t>adfsfd</t>
-  </si>
-  <si>
-    <t>camineros</t>
-  </si>
-  <si>
-    <t>Oscar Gustavo</t>
   </si>
   <si>
     <t>dvvs sd s</t>
@@ -263,7 +266,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -335,34 +338,34 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4">
-        <v>43557</v>
+        <v>43563</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -370,25 +373,25 @@
         <v>43557</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>11</v>
@@ -399,39 +402,39 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="4">
-        <v>43544</v>
+        <v>43557</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="4">
-        <v>43543</v>
+        <v>43544</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
@@ -440,153 +443,153 @@
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="H6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4">
-        <v>43542</v>
+        <v>43543</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="H7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4">
-        <v>43541</v>
+        <v>43542</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4">
-        <v>43536</v>
+        <v>43541</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="4">
-        <v>43535</v>
+        <v>43536</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -597,284 +600,284 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="4">
-        <v>43534</v>
+        <v>43535</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4">
-        <v>43509</v>
+        <v>43534</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="4">
-        <v>43508</v>
+        <v>43509</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="4">
-        <v>43507</v>
+        <v>43508</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="4">
-        <v>43505</v>
+        <v>43507</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="E16" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="4">
-        <v>43504</v>
+        <v>43505</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="4">
-        <v>43503</v>
+        <v>43504</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="4">
-        <v>43480</v>
+        <v>43503</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -882,31 +885,31 @@
         <v>43480</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="I20" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -914,95 +917,95 @@
         <v>43480</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="4">
-        <v>43475</v>
+        <v>43480</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="I22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="4">
-        <v>43474</v>
+        <v>43475</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1013,92 +1016,92 @@
         <v>12</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="4">
-        <v>43471</v>
+        <v>43474</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="4">
-        <v>25569</v>
+        <v>43471</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1109,28 +1112,28 @@
         <v>8</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="J27" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1141,28 +1144,60 @@
         <v>8</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="1" t="s">
+      <c r="I28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J28" s="1" t="s">
+      <c r="E29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>66</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Listado_PLANLABORAL.xlsx
+++ b/Listado_PLANLABORAL.xlsx
@@ -40,15 +40,18 @@
     <t>Luis Enrique Oviedo</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>Columnas Metalicas 2_</t>
+  </si>
+  <si>
     <t>Luis Enrique</t>
   </si>
   <si>
     <t>OBRA TEST</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Analia Riveros</t>
   </si>
   <si>
@@ -65,9 +68,6 @@
   </si>
   <si>
     <t>TESTXX</t>
-  </si>
-  <si>
-    <t>Columnas Metalicas 2_</t>
   </si>
   <si>
     <t>igelsia</t>
@@ -266,7 +266,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -306,7 +306,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="4">
-        <v>43564</v>
+        <v>43585</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -318,467 +318,467 @@
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4">
-        <v>43563</v>
+        <v>43584</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4">
-        <v>43557</v>
+        <v>43564</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="4">
-        <v>43557</v>
+        <v>43563</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="4">
-        <v>43544</v>
+        <v>43557</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4">
-        <v>43543</v>
+        <v>43557</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4">
-        <v>43542</v>
+        <v>43544</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4">
-        <v>43541</v>
+        <v>43543</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="4">
-        <v>43536</v>
+        <v>43542</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4">
-        <v>43535</v>
+        <v>43541</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="4">
-        <v>43535</v>
+        <v>43536</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4">
-        <v>43534</v>
+        <v>43535</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="4">
-        <v>43509</v>
+        <v>43535</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="4">
-        <v>43508</v>
+        <v>43534</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="4">
-        <v>43507</v>
+        <v>43509</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>51</v>
@@ -786,31 +786,31 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="4">
-        <v>43505</v>
+        <v>43508</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>51</v>
@@ -818,31 +818,31 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="4">
-        <v>43504</v>
+        <v>43507</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>51</v>
@@ -850,31 +850,31 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="4">
-        <v>43503</v>
+        <v>43505</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>51</v>
@@ -882,66 +882,66 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="4">
-        <v>43480</v>
+        <v>43504</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="4">
-        <v>43480</v>
+        <v>43503</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -949,25 +949,25 @@
         <v>43480</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>54</v>
@@ -978,28 +978,28 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="4">
-        <v>43475</v>
+        <v>43480</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>54</v>
@@ -1010,28 +1010,28 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="4">
-        <v>43474</v>
+        <v>43480</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>54</v>
@@ -1042,28 +1042,28 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="4">
-        <v>43474</v>
+        <v>43475</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>54</v>
@@ -1074,28 +1074,28 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="4">
-        <v>43471</v>
+        <v>43474</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>54</v>
@@ -1106,66 +1106,66 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="4">
-        <v>25569</v>
+        <v>43474</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="4">
-        <v>25569</v>
+        <v>43471</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1176,27 +1176,91 @@
         <v>8</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29" s="1" t="s">
+      <c r="I30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J29" s="1" t="s">
+      <c r="I31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="1" t="s">
         <v>67</v>
       </c>
     </row>

--- a/Listado_PLANLABORAL.xlsx
+++ b/Listado_PLANLABORAL.xlsx
@@ -266,7 +266,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -306,7 +306,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="4">
-        <v>43585</v>
+        <v>43588</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -338,7 +338,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4">
-        <v>43584</v>
+        <v>43587</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -370,28 +370,28 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4">
-        <v>43564</v>
+        <v>43586</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>9</v>
@@ -402,60 +402,60 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="4">
-        <v>43563</v>
+        <v>43585</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="4">
-        <v>43557</v>
+        <v>43584</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>9</v>
@@ -466,28 +466,28 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4">
-        <v>43557</v>
+        <v>43564</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>9</v>
@@ -498,39 +498,39 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4">
-        <v>43544</v>
+        <v>43563</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4">
-        <v>43543</v>
+        <v>43557</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
@@ -539,62 +539,62 @@
         <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="4">
-        <v>43542</v>
+        <v>43557</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4">
-        <v>43541</v>
+        <v>43544</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
@@ -603,147 +603,147 @@
         <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="4">
-        <v>43536</v>
+        <v>43543</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4">
-        <v>43535</v>
+        <v>43542</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="4">
-        <v>43535</v>
+        <v>43541</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="4">
-        <v>43534</v>
+        <v>43536</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>9</v>
@@ -754,103 +754,103 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="4">
-        <v>43509</v>
+        <v>43535</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="4">
-        <v>43508</v>
+        <v>43535</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="4">
-        <v>43507</v>
+        <v>43534</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="4">
-        <v>43505</v>
+        <v>43509</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>8</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="4">
-        <v>43504</v>
+        <v>43508</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>8</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="4">
-        <v>43503</v>
+        <v>43507</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
@@ -946,86 +946,86 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="4">
-        <v>43480</v>
+        <v>43505</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="4">
-        <v>43480</v>
+        <v>43504</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="4">
-        <v>43480</v>
+        <v>43503</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>11</v>
@@ -1034,36 +1034,36 @@
         <v>28</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="4">
-        <v>43475</v>
+        <v>43480</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>54</v>
@@ -1074,16 +1074,16 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="4">
-        <v>43474</v>
+        <v>43480</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>54</v>
@@ -1092,10 +1092,10 @@
         <v>54</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>54</v>
@@ -1106,28 +1106,28 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="4">
-        <v>43474</v>
+        <v>43480</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>54</v>
@@ -1138,13 +1138,13 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="4">
-        <v>43471</v>
+        <v>43475</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>12</v>
@@ -1153,13 +1153,13 @@
         <v>37</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>54</v>
@@ -1170,97 +1170,193 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="4">
-        <v>25569</v>
+        <v>43474</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="4">
-        <v>25569</v>
+        <v>43474</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="I30" s="1" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="4">
+        <v>43471</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="4">
         <v>25569</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="B32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="1" t="s">
+      <c r="E32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J31" s="1" t="s">
+      <c r="I34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>67</v>
       </c>
     </row>

--- a/Listado_PLANLABORAL.xlsx
+++ b/Listado_PLANLABORAL.xlsx
@@ -266,7 +266,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -306,7 +306,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="4">
-        <v>43588</v>
+        <v>43589</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -338,7 +338,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4">
-        <v>43587</v>
+        <v>43588</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
@@ -370,7 +370,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4">
-        <v>43586</v>
+        <v>43587</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
@@ -402,7 +402,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="4">
-        <v>43585</v>
+        <v>43586</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
@@ -434,7 +434,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="4">
-        <v>43584</v>
+        <v>43585</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
@@ -466,28 +466,28 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4">
-        <v>43564</v>
+        <v>43584</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>9</v>
@@ -498,66 +498,66 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4">
-        <v>43563</v>
+        <v>43564</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4">
-        <v>43557</v>
+        <v>43563</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -565,25 +565,25 @@
         <v>43557</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>9</v>
@@ -594,39 +594,39 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4">
-        <v>43544</v>
+        <v>43557</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="4">
-        <v>43543</v>
+        <v>43544</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>8</v>
@@ -635,153 +635,153 @@
         <v>11</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4">
-        <v>43542</v>
+        <v>43543</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="4">
-        <v>43541</v>
+        <v>43542</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="4">
-        <v>43536</v>
+        <v>43541</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="4">
-        <v>43535</v>
+        <v>43536</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -807,7 +807,7 @@
         <v>43</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>45</v>
@@ -818,71 +818,71 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="4">
-        <v>43534</v>
+        <v>43535</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="4">
-        <v>43509</v>
+        <v>43534</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="4">
-        <v>43508</v>
+        <v>43509</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>8</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="4">
-        <v>43507</v>
+        <v>43508</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
@@ -946,7 +946,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="4">
-        <v>43505</v>
+        <v>43507</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>8</v>
@@ -978,7 +978,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="4">
-        <v>43504</v>
+        <v>43505</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>8</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="4">
-        <v>43503</v>
+        <v>43504</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>8</v>
@@ -1042,34 +1042,34 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="4">
-        <v>43480</v>
+        <v>43503</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1077,13 +1077,13 @@
         <v>43480</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>54</v>
@@ -1092,10 +1092,10 @@
         <v>54</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>54</v>
@@ -1112,22 +1112,22 @@
         <v>57</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>54</v>
@@ -1138,16 +1138,16 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="4">
-        <v>43475</v>
+        <v>43480</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>37</v>
@@ -1156,10 +1156,10 @@
         <v>11</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>54</v>
@@ -1170,28 +1170,28 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="4">
-        <v>43474</v>
+        <v>43475</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>54</v>
@@ -1234,28 +1234,28 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="4">
-        <v>43471</v>
+        <v>43474</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>54</v>
@@ -1266,22 +1266,22 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="4">
-        <v>25569</v>
+        <v>43471</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>11</v>
@@ -1290,10 +1290,10 @@
         <v>23</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1304,28 +1304,28 @@
         <v>8</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1336,27 +1336,59 @@
         <v>8</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="4">
+        <v>25569</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34" s="1" t="s">
+      <c r="I35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="1" t="s">
         <v>67</v>
       </c>
     </row>

--- a/Listado_PLANLABORAL.xlsx
+++ b/Listado_PLANLABORAL.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>FECHA</t>
   </si>
@@ -40,13 +40,31 @@
     <t>Luis Enrique Oviedo</t>
   </si>
   <si>
+    <t>Luis Enrique</t>
+  </si>
+  <si>
+    <t>Casa Particular</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>clientito 1</t>
+  </si>
+  <si>
+    <t>igelsia</t>
+  </si>
+  <si>
+    <t>parroco</t>
+  </si>
+  <si>
+    <t>alguito testito</t>
+  </si>
+  <si>
     <t>prueba de 2</t>
   </si>
   <si>
     <t>PRUEBA DE OBRA</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -98,7 +116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -138,7 +156,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="4">
-        <v>43604</v>
+        <v>43614</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -156,47 +174,111 @@
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4">
+        <v>43612</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4">
+        <v>43604</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="4">
         <v>43603</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Listado_PLANLABORAL.xlsx
+++ b/Listado_PLANLABORAL.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>FECHA</t>
   </si>
@@ -43,10 +43,16 @@
     <t>Luis Enrique</t>
   </si>
   <si>
+    <t>asdvbb</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>OBRA TEST</t>
+  </si>
+  <si>
     <t>Casa Particular</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>clientito 1</t>
@@ -116,7 +122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -156,7 +162,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="4">
-        <v>43614</v>
+        <v>43619</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>8</v>
@@ -174,30 +180,30 @@
         <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4">
-        <v>43612</v>
+        <v>43617</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
@@ -206,79 +212,143 @@
         <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4">
-        <v>43604</v>
+        <v>43614</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="4">
+        <v>43612</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="4">
+        <v>43604</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="4">
         <v>43603</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
